--- a/biology/Biochimie/Doigt_de_zinc/Doigt_de_zinc.xlsx
+++ b/biology/Biochimie/Doigt_de_zinc/Doigt_de_zinc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les doigts de zinc sont de petits motifs structuraux trouvés dans les protéines et capables d'ordonner en complexe un ou plusieurs ions zinc pour stabiliser leur repliement. Ils peuvent être classés en plusieurs familles structurelles différentes (protéines à doigt de zinc) et fonctionnent typiquement comme des groupes d'interaction liant l'ADN, l'ARN, les protéines ou de petites molécules. Le nom « doigt de zinc » a initialement été donné pour décrire l'apparence semblable à des doigts d'un diagramme montrant la structure hypothétique de l'unité répétée dans le facteur de transcription IIIA de Xenopus laevis.
 </t>
